--- a/doc/log/201608040234-支友盟-日志记录表.xlsx
+++ b/doc/log/201608040234-支友盟-日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="18650" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="刘研" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>刘研日志</t>
   </si>
@@ -180,16 +180,25 @@
     <t>邢朋举日志</t>
   </si>
   <si>
-    <t>2019.9.26</t>
-  </si>
-  <si>
-    <t>6：00-20：00</t>
-  </si>
-  <si>
-    <t>学习K-近邻算法、学习deeplearning</t>
-  </si>
-  <si>
-    <t>两个任务都进展了一大部分</t>
+    <t>2019.10.10</t>
+  </si>
+  <si>
+    <t>12：00-20：00</t>
+  </si>
+  <si>
+    <t>学习决策树</t>
+  </si>
+  <si>
+    <t>部分进展，学到Matplotlib注解绘制树形图</t>
+  </si>
+  <si>
+    <t>2019.10.11</t>
+  </si>
+  <si>
+    <t>2019.10.12</t>
+  </si>
+  <si>
+    <t>2019.10.13</t>
   </si>
 </sst>
 </file>
@@ -197,12 +206,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,10 +258,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,12 +282,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -277,8 +296,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,16 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,101 +401,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,187 +417,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,17 +692,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,10 +735,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -777,8 +760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,163 +775,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1001,10 +990,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1356,44 +1342,44 @@
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:4">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>43661</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>43662</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1429,7 +1415,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>43663</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1975,14 +1961,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="37.125" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="26.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:8">
@@ -2034,7 +2020,9 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.75" spans="1:8">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="8"/>
@@ -2044,7 +2032,9 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.75" spans="1:8">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
@@ -2054,7 +2044,9 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.75" spans="1:8">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
